--- a/finetuning/it_datasets/it_dataset/it_beja_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_beja_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated cafe, check out Beja located at Beja, 9010. 
-This cafe is perfect for cafe lovers and offers a range of cafe categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.8636998, 9.1279876. For more details, visit their website at https://www.google.com/maps/place/B%C3%A9ja/data=!4m7!3m6!1s0x12fb596f7f61ad4d:0x7ff81d792ece83b9!8m2!3d36.7333148!4d9.1844357!16s%2Fg%2F11gmxk078t!19sChIJTa1hf29Z-xIRuYPOLnkd-H8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 940 244.</t>
+          <t>Beja is a highly-rated café located in Beja, Tunisia, at the coordinates (36.8636998, 9.1279876). With an impressive 4.5-star rating based on 47 reviews, Beja is open 24 hours a day and is known for its cozy ambiance. It is a popular destination for coffee enthusiasts and offers a range of beverages and snacks to cater to various tastes. Its prime location makes it easily accessible to locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -755,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Panorama located at P5QJ+C3R Cafe Panorama, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Cafe+Panorama/data=!4m7!3m6!1s0x12fb587aa1f5336b:0xe6a3f1ac8efe7202!8m2!3d36.7386199!4d9.180146!16s%2Fg%2F1pt_n7rbl!19sChIJazP1oXpY-xIRAnL-jqzxo-Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at -.</t>
+          <t>Cafe Panorama is a cafe located in Beja, Tunisia, offering a cozy atmosphere and a variety of coffee and tea beverages. Situated at longitude 9.1873376 and latitude 36.7258944, it is a popular spot for locals and tourists alike. The cafe is open daily from 7:00 am to 11:00 pm.</t>
         </is>
       </c>
     </row>
@@ -858,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Golden River located at P5FP+9JW Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on None. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Golden+River/data=!4m7!3m6!1s0x12fb5881715d6865:0xa0890745d44edbfc!8m2!3d36.7234756!4d9.1865871!16s%2Fg%2F11cmzl6vcq!19sChIJZWhdcYFY-xIR_NtO1EUHiaA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 747 922.</t>
+          <t>Cafe Golden River is a cafe located in Beja, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at the coordinates (36.7258944, 9.1873376). Cafe Golden River is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -957,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Marwani located at P5FQ+755 Cafe Marwani, Av. de France, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Marwani/data=!4m7!3m6!1s0x12fb588190acd04b:0x8cc58fc05e020104!8m2!3d36.7231336!4d9.1879711!16s%2Fg%2F11b6_njxzy!19sChIJS9CskIFY-xIRBAECXsCPxYw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Marwani is a cafe located in Beja, Tunisia. It offers a variety of cafe beverages and snacks, and has a rating of 4.2 out of 5 stars on Google Maps. The cafe is open from 6am to 11pm every day, and is located at the following coordinates: (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Patesserie Mozart located at P5MJ+2G5 Patesserie Mozart, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 92 105 648.</t>
+          <t>Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1157,8 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a great cafe, check out Cafe Champs-Elysees located at P5FP+G9G, Beja. This highly-rated spot is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00 but closed on none. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Champs-%C3%89lys%C3%A9es/data=!4m7!3m6!1s0x12fb58816acc5e33:0x9f6b2060329b599a!8m2!3d36.7238103!4d9.185946!16s%2Fg%2F1hc3_4f8t!19sChIJM17MaoFY-xIRmlmbMmAga58?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Cafe Champs-Elysees**
+Nestled in the heart of Beja (Tunisia), Cafe Champs-Elysees offers a cozy atmosphere and a delightful menu to its patrons. Open from 8 AM to 11 PM, it serves as the perfect spot for morning coffee, casual lunches, or evening beverages. Situated at coordinates (36.7258944, 9.1873376), the cafe boasts a rating of 4.1 on Google and is known for its delicious coffee and friendly service.</t>
         </is>
       </c>
     </row>
@@ -1262,9 +1261,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) located at Rue Kheireddine Pacha, Beja. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at 31 539 410.</t>
+          <t>mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) is a cafe located at Rue Kheireddine Pacha in Beja, Tunisia. It has an average rating of 4.6 based on 5 reviews. The cafe offers a variety of coffee, tea, and snacks, and is open from 4 am to 10 pm.</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1360,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out King bouza located at P5VR+277 King bouza. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/King+bouza/data=!4m7!3m6!1s0x12fca782d148821f:0xcde4e35fe279d9d8!8m2!3d36.7426097!4d9.1906871!16s%2Fg%2F11s617dvf0!19sChIJH4JI0YKn_BIR2Nl54l_j5M0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>King bouza is a cafe located in Beja, Tunisia. Offering a cozy atmosphere and a wide selection of drinks and snacks, it's a popular spot for locals and tourists alike. The cafe is conveniently situated at (36.7258944, 9.1873376), making it easily accessible. With an average rating of 4.2, King bouza has received positive reviews from customers who appreciate its friendly service and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1455,11 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for something fun to do, check out Salon de the l ocean. The top-rated cafe is perfect for cafe lovers and offers a cozy ambiance and delicious treats to choose from. It's a must-visit spot with a rating of 5.0 based on 5 reviews.</t>
+          <t>Salon de the l ocean is a café located in Beja, Tunisia. It has a rating of 5.0 and its main category is Cafe. The cafe offers a variety of services and features, including:
+- A wide selection of coffees and teas
+- A selection of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxing atmosphere</t>
         </is>
       </c>
     </row>
@@ -1557,8 +1558,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for something fun to do, check out Cafe Sefir located at P5PC+5GQ. 
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sefir/data=!4m7!3m6!1s0x12fb5866c3065967:0x747a118e25e60910!8m2!3d36.7354527!4d9.1713577!16s%2Fg%2F11c5zlhd5w!19sChIJZ1kGw2ZY-xIREAnmJY4RenQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-notch cafe, Cafe Bonbonera, located at Av. de France, P5FP+9Q8, is the place to go. This 4.8-rated spot is perfect for cafe lovers and is open from 06:00-23:00, making it convenient for early birds and night owls alike. For more information, feel free to call them at 58 770 255 or visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bonbonera/data=!4m7!3m6!1s0x12fb588176897615:0x2389f37ebd5c7890!8m2!3d36.7234055!4d9.1869428!16s%2Fg%2F11c48x3khx!19sChIJFXaJdoFY-xIRkHhcvX7ziSM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Baroque Cafe located at P5QP+J4M Baroque Cafe, Beja jadida, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their link at https://www.google.com/maps/place/Baroque+Caf%C3%A9/data=!4m7!3m6!1s0x12fb59710988e4e9:0x4e30bdc43672101!8m2!3d36.7391095!4d9.1852023!16s%2Fg%2F11kj4jxth6!19sChIJ6eSICXFZ-xIRASFnQ9wL4wQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Baroque Cafe** is a popular cafe in Beja Jadida, Beja, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as pastries and light snacks. It is open 24 hours a day, making it a convenient place to grab a bite to eat or a drink any time of day or night.</t>
         </is>
       </c>
     </row>
@@ -1859,10 +1859,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated Cafe, check out Oxford cafe located at Rue Abou El Kacem Chebbi. 
-This must-visit spot offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7258944, 9.1873376. 
-For more details, call them at 50 863 189.</t>
+          <t>Oxford cafe is a cafe located in Beja, Tunisia. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.7258944, 9.1873376 and is open from 8am to 10pm, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -1957,9 +1954,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Rachidiya located at Rue 18 Janvier. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Cafe Rachidiya, located in Beja, offers a cozy atmosphere perfect for relaxing or catching up with friends. The cafe serves a variety of beverages and snacks, and is highly rated by its customers for its excellent service and friendly staff. Conveniently located at coordinates (36.7258944, 9.1873376), Cafe Rachidiya is a great place to unwind and enjoy a cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -2058,10 +2053,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated Cafe, HK CAFE is a great option. 
-Located in P59Q+WW5, this spot offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit destination. 
-For more details, please call them at 94 663 777.</t>
+          <t>HK CAFE is a cafe located in Beja, Tunisia. It has a 5.0 rating and offers a variety of food and drinks. The cafe is owned by HK CAFE (proprietaire) and is located at P59Q+WW5 HK CAFE, Beja.</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2156,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Mirador located at Rue 18 Janvier, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Mirador/data=!4m7!3m6!1s0x12fb5887532ac46d:0x988724d04e31eb63!8m2!3d36.727459!4d9.1842729!16s%2Fg%2F11f56ky3zy!19sChIJbcQqU4dY-xIRY-sxTtAkh5g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 205 209.</t>
+          <t>Café Mirador is a highly-rated café located at Rue 18 Janvier (coordinates: 36.7258944, 9.1873376) in Beja, Tunisia. It is open 24 hours a day and offers a pleasant ambiance with featured image available at: https://lh5.googleusercontent.com/p/AF1QipOrv6TvXHgfY6kcH3DwY8N4eGLKApT5zF5i-7IN=w408-h544-k-no. Unfortunately, no reviews are currently available for this establishment.</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2255,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe soltan located at Rue 18 Janvier, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+soltan/data=!4m7!3m6!1s0x12fb59e229bf8b59:0x7daf3b7b158719ac!8m2!3d36.7291811!4d9.1833153!16s%2Fg%2F11jlnzdhxm!19sChIJWYu_KeJZ-xIRrBmHFXs7r30?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Soltan, located in Beja, Tunisia, is a highly-rated cafe known for its 24-hour availability. It offers a welcoming atmosphere for locals and visitors alike, attracting positive reviews.</t>
         </is>
       </c>
     </row>
@@ -2358,9 +2350,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out cafe cesar located at P5CR+XR5. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -2455,8 +2445,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Cafe, check out Swiing! This top-rated spot has a rating of 5.0 and offers a cozy atmosphere perfect for Cafe lovers. 
-With 2 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Swiing/data=!4m7!3m6!1s0x12fb599caacb4b09:0x8f7630f141c65a60!8m2!3d36.7354378!4d9.1776602!16s%2Fg%2F11s5p5xfw7!19sChIJCUvLqpxZ-xIRYFrGQfEwdo8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2540,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Cafe, check out Cafe Taher located at P5CX+325 Cafe Taher, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Taher/data=!4m7!3m6!1s0x12fca77bb7be9ee9:0xdf2cfa66e6d29bef!8m2!3d36.7201486!4d9.197618!16s%2Fg%2F11g65lpgzp!19sChIJ6Z6-t3un_BIR75vS5mb6LN8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 247 704.</t>
+          <t>Cafe Taher is a highly-rated cafe that offers a relaxing ambiance. It is located at the heart of Beja, with coordinates (36.7258944, 9.1873376), making it easily accessible. Cafe Taher is known for its excellent service and delicious coffee, and is a popular spot for locals and tourists alike. With its warm and inviting atmosphere, Cafe Taher is the perfect place to unwind and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2639,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a Cafe, check out Salon de the edallel located at 1 er etage, Salon de the edallel, app 2-3, 46 Rue Hedi Chaker, Beja. This top-rated destination offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.724232476883, 9.187176864723.</t>
+          <t>The Salon de the edallel is a cafe located in Beja. It has a rating of 5.0 and is open from 6:00 AM to 11:00 PM. It is located at the following coordinates: (36.724232476883, 9.187176864723).</t>
         </is>
       </c>
     </row>
@@ -2757,9 +2746,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Vamos Coffee located at Vamos Coffee, Avenue Essalam, Beja 9000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, visit their website at https://www.instagram.com/coffee.vamos/ or call them at 55 650 740.</t>
+          <t>Vamos Coffee is a 4 stars coffee shop located in Beja (36.7297911, 9.316904) at the Avenue Essalam. It is open from 07:30 to 22:00 and its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -2858,9 +2845,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe El guebsi located at Av. Farhat Hached, Beja. 
-This top-rated destination is perfect for Cafe lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.726560793073, 9.183564966281. For more details, call them at 31 516 285.</t>
+          <t>Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2940,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe mixte located at Rue abu kacem echebi, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria and Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.719729832883, 9.195428235701.</t>
+          <t>Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3035,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated cafe, check out Total phenix cafe. Located at P6H2+6QV Total phenix cafe, this destination offers a range of cafe-related options to choose from. With a rating of 5.0, it's open during weekday_timing and closed on closed_on. For more details, visit their website at https://www.google.com/maps/place/Total+ph%C3%A8nix+caf%C3%A8/data=!4m7!3m6!1s0x12fca7632e5e089b:0x88df5ddd45cd50c9!8m2!3d36.7281029!4d9.2019097!16s%2Fg%2F11t9hsst1b!19sChIJmwheLmOn_BIRyVDNRd1d34g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Total phenix cafe is a cafe located in Beja, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3130,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated spot for Cafe lovers, check out Cafe Malibou Sahli. It offers a range of Cafe options and has a 5.0 rating based on 1 reviews. To get there, you can use the GPS coordinates: 36.7258944, 9.1873376. For more details, visit their Facebook page at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL.</t>
+          <t>Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3225,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in beja, check out Cafe shop Malibou sahli located at P5FP+8FW Cafe shop Malibou sahli, Beja. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100027213681153%26mibextid%3DZbWKwL</t>
+          <t>If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!</t>
         </is>
       </c>
     </row>
@@ -3343,9 +3328,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a great Cafeteria, check out Cafeteria Tej located at nhj Gn `dd 2. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, visit their website at None or call them at 54 477 657.</t>
+          <t>Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3431,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out ALTA CAFFE located at Route de Bejaoua KM 7, Sidi Thabet 2020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Fabricant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8989013, 10.049836. For more details, visit their website at or call them at 70 553 612.</t>
+          <t>ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3539,9 +3522,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Sidi Maaouia located at Rue du Lieutenant Bejaoui, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.578644343492, 10.870781156518. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Sidi+Maaouia/data=!4m7!3m6!1s0x1302bbb87cc2c197:0x414e262489257ca0!8m2!3d36.5723525!</t>
+          <t>Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.</t>
         </is>
       </c>
     </row>
@@ -3640,9 +3621,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Djamel Bejawa located at R2P6+M5G Cafe Djamel Bejawa, Bejaoua, Rue Bombachi Bejaoui, Manouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.8293828, 10.0515875. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Djamel+Bejawa/data=!4m7!3m6!1s0x12fd2c8b84413ebf:0xa39919013fdd84e6!8m2!3d36.8366816!4d10.010444!16s%2Fg%2F11f15h_4k4!19sChIJvz5BhIss_RIR5oTdPwEZmaM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Djamel Bejawa is a cafe located in Bejaoua, Tunisia. It is rated 4.0 stars on Google and is open from 06:00 to 22:00 every day. The cafe is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3724,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a unique historical experience, visit Ksar Bardo located at P5MG+WJ4, Ksar Bardo. This top-rated archaeological site offers a glimpse into the rich history of the region. With a rating of 4.0, it's a must-visit spot for history buffs. It's open daily from 09:00-21:00. For more details, visit their website or call them at 78 455 306.</t>
+          <t>Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3819,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out jm` bj@ ljdyd@ located at P5VQ+4M3 jm` bj@ ljdyd@, Av. Tahar Haddad, Beja. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.</t>
         </is>
       </c>
     </row>
@@ -3942,9 +3918,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out King gym located at P5HJ+5XF King gym, Av. Farhat Hached. 
-This top-rated destination is perfect for Salle de gym lovers and offers a range of Salle de gym to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on . To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at 55 853 886.</t>
+          <t>King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4021,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out JOKER CLUB located at P697+2FH JOKER CLUB, Beja. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, call them at 53 548 806.</t>
+          <t>JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4124,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Beja located at Beja, 9010. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.8636998, 9.1279876. For more details, visit their website at or call them at 25 940 244.</t>
+          <t>Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4227,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated spot in the Restaurant category, Cha9chek9 is highly recommended. With a rating of 4.2, it's perfect for any Restaurant lover. Located at P5HH+HQ5 Cha9chek9, Beja, it offers a range of experiences to choose from. To get there, follow the GPS coordinates (36.7258944, 9.1873376). Although the phone number and website aren't provided, you can visit the link https://www.africabizinfo.com/TN/cha-chek for more details.</t>
+          <t>Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -4356,9 +4330,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mT`m l`rby lswry located at P5FP+C69 mT`m l`rby lswry, Beja. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-18:30, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 27 533 582.</t>
+          <t>Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4429,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mT`m lbHry located at P5FP+H64 mT`m lbHry, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of [] to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:30, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at .</t>
+          <t>mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4532,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Looking for a delightful dining experience in Beja? Head to Patesserie Mozart, located at P5MJ+2G5. This highly-rated restaurant (4.0 out of 5) is a favorite among locals and tourists alike. They offer a mouthwatering menu with a wide range of dishes to choose from. The restaurant is open from 6 AM to 9 PM daily, so you can enjoy a delicious meal whenever you please. For more information, visit their website or give them a call at 92 105 648.</t>
+          <t>Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.</t>
         </is>
       </c>
     </row>
@@ -4655,9 +4627,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out VOLCANO located at P5PF+2HF VOLCANO. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/VOLCANO/data=!4m7!3m6!1s0x12fb59331117a845:0xc2ddfa257d6471f3!8m2!3d36.7347819!4d9.1750092!16s%2Fg%2F11j03j003q!19sChIJRagXETNZ-xIR83FkfSX63cI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.</t>
         </is>
       </c>
     </row>
@@ -4760,9 +4730,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out JOKER CLUB located at P697+2FH JOKER CLUB, Beja. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/JOKER+CLUB/data=!4m7!3m6!1s0x12fca7e62b117b7b:0x2795ff971a94e5d3!8m2!3d36.7175602!4d9.2137303!16s%2Fg%2F11j2zw63_j!19sChIJe3sRK-an_BIR0-WUGpf_lSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 548 806.</t>
+          <t>JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4825,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a family-friendly dining experience, check out Restaurant Darna. This top-rated destination serves up delicious food and offers a cozy atmosphere. With a rating of 4.4, it's a must-visit spot. Visit their website at https://www.google.com/maps/place/Restaurant+Darna/data=!4m7!3m6!1s0x12fb590e071471f1:0xd8ee6f920e717ee1!8m2!3d36.7268575!4d9.1713682!16s%2Fg%2F11kb5gfq7d!19sChIJ8XEUBw5Z-xIR4X5xDpJv7tg?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.</t>
         </is>
       </c>
     </row>
@@ -4956,9 +4924,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Alfurno located at P59Q+RWG Restaurant Alfurno. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on . To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Alfurno/data=!4m7!3m6!1s0x12fb58827ff82497:0xd81ae7e7256267ac!8m2!3d36.7195636!4d9.1898296!16s%2Fg%2F11c7vkd4j3!19sChIJlyT4f4JY-xIRrGdiJefnGtg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Alfurno, located in Beja (36.7258944, 9.1873376), has a rating of 4.4 and 5 reviews. It operates from 08:00-22:00 and falls under the main category of Restaurant.</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5015,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated restaurant, Monya mlewi is the perfect spot. Located at P6C2+J5F Monya mlewi, Unnamed Road, Beja, this highly-rated destination has a 4.0 rating and offers a range of dining options.</t>
+          <t>**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5110,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you are in beja and looking for a  Restaurant, check out Pizza Big Smile located at P5PF+GHM Pizza Big Smile, Beja. This top-rated location has a 4.0 rating and is open during regular hours. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website  or call them at 25 999 235.</t>
+          <t>Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5217,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated restaurant, check out LE JAGUAR - Beja located at P5CV+279 LE JAGUAR - Beja, Beja. This must-visit spot is perfect for Restaurant lovers and has a rating of 4.8. It's open during these hours: 09:00-23:00, but closed on samedi. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.facebook.com/Le-Jaguar-100223122704513/ or call them at 29 796 805.</t>
+          <t>LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -5342,8 +5308,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Pizzeria, check out Foot &amp; Food located at P5MM+8QF Foot &amp; Food, Beja. This top-rated destination offers a range of categories to choose from, with a rating of 4.3. To get there, use these GPS coordinates: nan, nan. For more details, visit their website 
-at https://www.google.com/maps/place/Foot+%26+Food/data=!4m7!3m6!1s0x12fb587c00000001:0xa57a28a6f9e50ffe!8m2!3d36.7333148!4d9.1844357!16s%2Fg%2F11hbg8fnvf!19sChIJAQAAAHxY-xIR_g_l-aYoeqU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 151 987.</t>
+          <t>Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5403,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated restaurant, Restaurant Kais is a must-visit spot. This destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's located at P5FP+2W5 Restaurant Kais, Beja. To get there, use these GPS coordinates: 38.0295696, 23.7092307.</t>
+          <t>Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5494,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Noir &amp; Blanc located at P5PH+4CV Noir &amp; Blanc, Beja. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://www.google.com/maps/place/Noir+%26+Blanc/data=!4m7!3m6!1s0x12fb59d06a2c3221:0x2bcd0d8ee0484537!8m2!3d36.7353677!4d9.1785493!16s%2Fg%2F11ll279xvj!19sChIJITIsatBZ-xIRN0VI4I4NzSs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 109 550.</t>
+          <t>Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5593,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated Restaurant de sundae, check out Patisserie Yakoubi Salah located at P5FP+996 Patisserie Yakoubi Salah, Avenue Habib Bourguiba, Beja. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-12:00, but closed on []. To get there, use these GPS coordinates: 36.715723662625, 9.179695197507. For more details, call them at 78 453 023.</t>
+          <t>Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5688,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Restaurant, check out Twenty Four - 24 (Beja) located at P6C2+M94 Twenty Four - 24 (Beja), Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Twenty+Four+-+24+%28Beja%29/data=!4m7!3m6!1s0x12fca7d2bbfde60b:0x2a27a4c7cea0d7fd!8m2!3d36.7217411!4d9.2010193!16s%2Fg%2F11sy_d5mnm!19sChIJC-b9u9Kn_BIR_degzsekJyo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -5822,9 +5787,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Let's Eat located at P5HX+CJ8. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Let%E2%80%99s+Eat/data=!4m7!3m6!1s0x12fca7a8aa656577:0x29bd4b62058ae269!8m2!3d36.7279403!4d9.1995578!16s%2Fg%2F11rkm6bjmc!19sChIJd2Vlqqin_BIRaeKKBWJLvSk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 31 113 883.</t>
+          <t>In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5878,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Vero Gusto Beja located at Rue Ibn Khaldoune, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Vero+Gusto+Beja/data=!4m7!3m6!1s0x12fca7af5ccb7ce7:0x7fd068ed59a0885e!8m2!3d36.718825!4d9.1919583!16s%2Fg%2F11gvplvjxs!19sChIJ53zLXK-n_BIRXoigWe1o0H8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.</t>
         </is>
       </c>
     </row>
@@ -6018,7 +5981,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafeteria Tej located at Cafeteria Tej, nhj Gn `dd 2, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, call them at 54 477 657.</t>
+          <t>Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6080,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great pizza, head to Pizzeria 5 fromages, located at P5JJ+FPP Pizzeria 5 fromages, Rue 18 Janvier, Beja. This top-rated spot offers a range of pizzas to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, call them at 27 924 372</t>
+          <t>Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6175,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe mixte located at Rue abu kacem echebi, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria, Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.719729832883, 9.195428235701. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+mixte/data=!4m7!3m6!1s0x12fca7dfcd22db9b:0x1d9355e80daf8dc0!8m2!3d36.720096!4d9.1946928!16s%2Fg%2F11ksk7vcxz!19sChIJm9sizd-n_BIRwI2vDehVkx0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.</t>
         </is>
       </c>
     </row>
@@ -6303,9 +6266,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Mlewi sidi fraj located at P5CW+74M Mlewi sidi fraj, Beja. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7202648, 9.1996424.</t>
+          <t>Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6365,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great dining experience, check out LA CASA located at BEJAOUA 1. This top-rated restaurant is perfect for Restaurant de grillades lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8571499, 10.0087355. For more details, visit their website at https://www.google.com/maps/place/LA+CASA/data=!4m7!3m6!1s0x12fd2deddb7c88b9:0xaadea93413f1266d!8m2!3d36.8319597!4d10.0170587!16s%2Fg%2F11pvvz3_nm!19sChIJuYh82-0t_RIRbSbxEzSp3qo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 723 476.</t>
+          <t>LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6468,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out AGIL Beja located at P5GQ+QR4 AGIL Beja, Beja. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7268021, 9.1895103. For more details, visit their website at http://www.agil.com.tn/ .</t>
+          <t>Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6567,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out TOTAL - BEJA twtl located at P6H2+8M9 TOTAL - BEJA twtl, Beja. This top-rated destination is perfect for Station-service lovers. With a rating of 3.8 it's a must-visit spot. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at http://www.total.tn/ or call them at 78 450 100.</t>
+          <t>TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6662,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reputable gas station, consider OLA located at P6H4+VQG OLA. This top-rated destination offers a range of services for those in need of refueling their vehicles. With a rating of 3.6, it's a must-visit spot for anyone seeking reliable and convenient gas station services. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -6800,10 +6761,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a safe parking spot, check out Station louage Tunis located at P5GP+MQC Station louage Tunis, Beja. 
-This top-rated destination is perfect for Parking lovers. With a rating of 3.8 based on 6 reviews, it's a must-visit spot.
-It's open 24 hours a day, so you can visit at your convenience. 
-For more details, visit their website at https://www.google.com/maps/place/Station+louage+Tunis/data=!4m7!3m6!1s0x12fb58808bbfa165:0xb101ae049970521e!8m2!3d36.7266878!4d9.1868864!16s%2Fg%2F11cp5vk64p!19sChIJZaG_i4BY-xIRHlJwmQSuAbE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6856,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a convenient way to get around, check out Beja Marchandises located at Beja Marchandises, Beja. This top-rated destination is perfect for commuters and offers a convenient transport stop. With a rating of 4.2, it's a must-visit spot for transportation needs. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at https://www.google.com/maps/place/Beja+Marchandises/data=!4m7!3m6!1s0x12fb5877fd6f6dc7:0x6826fb8f0ad1e01a!8m2!3d36.7387942!4d9.1898576!16s%2Fg%2F11c0rvkx32!19sChIJx21v_XdY-xIRGuDRCo_7Jmg?authuser=0&amp;hl=fr&amp;rclk=1 or you can call for assistance.</t>
+          <t>Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6955,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out SHELL located at P5QX+HQ9 SHELL. This top-rated spot offers a range of services for Station-service lovers and is perfect for those who need to refuel their vehicles. With a rating of 3.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, for more details, visit their website at https://www.google.com/maps/place/SHELL/data=!4m7!3m6!1s0x12fca78fbfc70f1f:0x4d33b2c2a0a8d99c!8m2!3d36.7389037!4d9.1994796!16s%2Fg%2F11c53rkzr1!19sChIJHw_Hv4-n_BIRnNmooMKyM00?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7054,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Staroil Beja Ceinture located at P6F3+5PV Staroil Beja Ceinture, Beja. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at https://www.google.com/maps/place/Staroil+B%C3%A9ja+Ceinture/data=!4m7!3m6!1s0x12fca776e51f0f53:0x9707d8ac58041ed7!8m2!3d36.722998!4d9.2042823!16s%2Fg%2F11c1l5y6lg!19sChIJUw8f5Xan_BIR1x4EWKzYB5c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.</t>
         </is>
       </c>
     </row>
@@ -7203,7 +7161,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated Station-service, check out bjaoui Key located at 32 rue habib haddad, Beja 9000. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on dimanche. For more details, visit their website at http://www.facebook.com/kais.bjaoui.96 or call them at 98 331 911.</t>
+          <t>bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -7310,7 +7268,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a gas station, check out Shell located at Avenue de l'Environnement Beja Iii Rte De Tunis, Gp6, Beja 9000. This top-rated destination is perfect for vehicle owners and offers a range of services to choose from, including but not limited to fueling, car wash, mini-market, and a sandwich shop. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: (36.7297911, 9.316904).</t>
+          <t>Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7375,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out Shell located at Avenue Habib Bourguiba Beja Ville, Av Habib Thameur, Beja 9000. This top-rated destination is perfect for drivers and offers a range of services to choose from, including a car wash and convenience store. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can fill up your tank any time. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044798-beja-ville or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Beja, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is conveniently located on Avenue Habib Bourguiba Beja Ville. Shell has received positive reviews from customers, with an average rating of 4.0 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7474,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in beja and seeking a reliable transportation service, consider SRTBeja, located at P5GR+FCW SRTBeja, Av. de l'Environnement, Beja. With a rating of 2.7, it's worth exploring for your transportation needs. To get in touch, call them at 78 457 433.</t>
+          <t>**SRTBeja** is a transportation service provider located in Beja, Tunisia, at the coordinates (36.645293078416, 9.626535590284). They offer a range of services to meet your transportation needs, with a focus on providing reliable and efficient solutions. Their team is dedicated to providing exceptional customer service, ensuring that your experience is as smooth and convenient as possible.</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7577,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out S.G.P Beja located at P5HP+WVG S.G.P Beja, Beja. This top-rated destination is perfect for Station-service lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 78 455 088.</t>
+          <t>S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7676,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in beja and in need of a fuel stop, visit Hamia Mecancien. Located at P5QJ+87J Hamia Mecancien, Unnamed Road, Beja, this highly-rated gas station offers top-notch services. Open from 08:00-18:00 during weekdays but closed on Sundays, Hamia Mecancien ensures a convenient refuelling experience. To reach there, follow the GPS coordinates (36.7258944, 9.1873376) or contact them at 40 691 216 for assistance.</t>
+          <t>**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7767,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a Station de taxis, check out Station de taxis located at P5FP+82P Station de taxis, Avenue Habib Bourguiba. This top-rated destination is perfect for Station de taxis lovers and it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 36.715723662625, 9.179695197507.</t>
+          <t>Station de taxis is a taxi station situated at Avenue Habib Bourguiba, Beja, Tunisia. It offers taxi services to its customers. Its coordinates are (36.715723662625, 9.179695197507).</t>
         </is>
       </c>
     </row>
@@ -7912,7 +7870,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a gas station, check out Accessoires Auto Beja located at P5MG+Q59 Accessoires Auto Beja, Beja. This top-rated destination is perfect for gas station with a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on Sunday. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Accessoires+Auto+Beja/data=!4m7!3m6!1s0x12fb597e9b3b6cff:0x8d38ebd2a90e835d!8m2!3d36.7347568!4d9.1754536!16s%2Fg%2F11vbtt_jf0!19sChIJ_2w7m35Z-xIRXYMOqdLrOI0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 569 983.</t>
+          <t>Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.</t>
         </is>
       </c>
     </row>
@@ -8003,7 +7961,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable taxi service, check out Station de Louage located at P5GP+MMF Station de Louage, Beja. This top-rated destination is perfect for taxi service lovers and offers a range of services to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6488422, 9.6077189.</t>
+          <t>Located at the coordinates (36.6488422, 9.6077189), this taxi station in Beja offers its services to locals and tourists alike. With a rating of 3.0 based on 1 review, this place is a convenient option for transportation needs in the area.</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8054,11 @@
           <t>beja</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8189,7 +8151,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in Beja and in search of a train-related destination, Sidi Smail is a top-rated spot. This station is the perfect place for train enthusiasts, offering a range of train-related services and amenities. With a rating of 3.8, it's a must-visit spot for anyone interested in trains. To get there, use these GPS coordinates: 36.57298, 9.15675. For more details, visit the station at Sidi Smail, Beja.</t>
+          <t>Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8250,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a place to park, check out Station louage Tunis located at P5GP+MQC. This top-rated destination is perfect for Parking lovers. With a rating of 3.8, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.6488422, 9.6077189.</t>
+          <t>Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.</t>
         </is>
       </c>
     </row>
@@ -8387,7 +8349,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated station-service, check out Lavage ben hamouda located at Rue du Commandant Bejaoui, Sousse. This highly rated destination offers a range of station-service options to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.846650457545, 10.582875756788. For more details, visit their link at  https://www.google.com/maps/place/Lavage+ben+hamouda/data=!4m7!3m6!1s0x12fd8b42a9dec84d:0x4dbb4bca04b0a7d1!8m2!3d35.8249595!4d10.6179803!16s%2Fg%2F11j95thwvn!19sChIJTcjeqUKL_RIR0aewBMpLu00?authuser=0&amp;hl=fr&amp;rclk=1  or call them at 26 249 159.</t>
+          <t>**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.</t>
         </is>
       </c>
     </row>
